--- a/biology/Médecine/Simon_Flexner/Simon_Flexner.xlsx
+++ b/biology/Médecine/Simon_Flexner/Simon_Flexner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Flexner, (25 mars 1863 à Louisville, Kentucky – 2 mai 1946) est médecin, scientifique, administrateur et professeur de pathologie expérimentale à l'université de Pennsylvanie (1899–1903).
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le premier directeur du Rockefeller Institute for Medical Research (1901-1935) (devenu plus tard l'université Rockefeller) et un administrateur de la fondation Rockefeller. Il était aussi un ami et conseiller de John D. Rockefeller Jr.
 Parmi les réalisations les plus importantes de Flexner, il faut citer des études sur la poliomyélite et le développement du traitement sérique pour la méningite. 
-Parmi ses assistants de laboratoire se trouvaient Alice Hamilton[1],[2], Hideyo Noguchi et Cornelius Rhoads, futurs directeurs du Memorial Sloan-Kettering Cancer Center. Il persuada en outre l'anatomiste français Alexis Carrel de rejoindre l'Institut Rockefeller en 1905.
+Parmi ses assistants de laboratoire se trouvaient Alice Hamilton Hideyo Noguchi et Cornelius Rhoads, futurs directeurs du Memorial Sloan-Kettering Cancer Center. Il persuada en outre l'anatomiste français Alexis Carrel de rejoindre l'Institut Rockefeller en 1905.
 L'espèce de bactéries Shigella flexneri a été nommée en l'honneur de Simon Flexner. En outre, il a été le premier à décrire les rosettes Flexner-Wintersteiner, une découverte caractéristique dans le rétinoblastome, un type de cancer.
 </t>
         </is>
